--- a/Table/client/lua/exe/temp/B 宝座幻化外观表.xlsx
+++ b/Table/client/lua/exe/temp/B 宝座幻化外观表.xlsx
@@ -5,74 +5,165 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\trunk\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="7335" yWindow="2430" windowWidth="20745" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>升级道具ID</t>
-  </si>
-  <si>
-    <t>升级物品消耗</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>破甲</t>
-  </si>
-  <si>
-    <t>是否广播</t>
-  </si>
-  <si>
-    <t>拥有技能ID</t>
-  </si>
-  <si>
-    <t>宝座星级</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>무한성공</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宝座等阶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>宝座星级</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>升级道具ID</t>
+  </si>
+  <si>
+    <t>升级物品消耗</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>是否广播</t>
+  </si>
+  <si>
+    <t>拥有技能ID</t>
+  </si>
+  <si>
     <t>12005001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12005001,12006001</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无垠星空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>12005001,12006001,12007001</t>
@@ -83,18 +174,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -102,13 +192,11 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -120,26 +208,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,16 +259,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -230,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -282,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -487,7 +586,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,44 +603,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>3085000</v>
       </c>
       <c r="B2" s="1">
@@ -550,13 +649,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>3085000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -572,10 +671,10 @@
         <v>300</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>3085001</v>
       </c>
       <c r="B3" s="1">
@@ -584,13 +683,13 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>3085000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -608,10 +707,10 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3085002</v>
       </c>
       <c r="B4" s="1">
@@ -620,13 +719,13 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>3085000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -644,12 +743,12 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>12</v>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3085003</v>
       </c>
       <c r="B5" s="1">
@@ -658,13 +757,13 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
         <v>3085000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="1">
@@ -682,12 +781,12 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3085004</v>
       </c>
       <c r="B6" s="1">
@@ -696,13 +795,13 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>3085000</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -720,12 +819,12 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>13</v>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3085005</v>
       </c>
       <c r="B7" s="1">
@@ -734,13 +833,13 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
         <v>3085000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>5</v>
       </c>
       <c r="G7" s="1">
@@ -758,12 +857,12 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>3085006</v>
       </c>
       <c r="B8" s="1">
@@ -772,11 +871,11 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1">
         <v>17500</v>
       </c>
@@ -792,8 +891,8 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">

--- a/Table/client/lua/exe/temp/B 宝座幻化外观表.xlsx
+++ b/Table/client/lua/exe/temp/B 宝座幻化外观表.xlsx
@@ -5,165 +5,74 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\trunk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2430" windowWidth="20745" windowHeight="12675"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>무한성공</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>升级道具ID</t>
+  </si>
+  <si>
+    <t>升级物品消耗</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>是否广播</t>
+  </si>
+  <si>
+    <t>拥有技能ID</t>
+  </si>
+  <si>
+    <t>宝座星级</t>
   </si>
   <si>
     <t>宝座等阶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝座星级</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>升级道具ID</t>
-  </si>
-  <si>
-    <t>升级物品消耗</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>破甲</t>
-  </si>
-  <si>
-    <t>是否广播</t>
-  </si>
-  <si>
-    <t>拥有技能ID</t>
-  </si>
-  <si>
     <t>12005001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12005001,12006001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无垠星空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>12005001,12006001,12007001</t>
@@ -174,17 +83,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -192,11 +102,13 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -208,37 +120,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,16 +160,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -329,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -381,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -586,7 +487,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,59 +504,59 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>3085000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="E2" s="3">
         <v>3085000</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3085000</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -671,10 +572,10 @@
         <v>300</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3085001</v>
       </c>
       <c r="B3" s="1">
@@ -683,13 +584,13 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
         <v>3085000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -707,10 +608,10 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3085002</v>
       </c>
       <c r="B4" s="1">
@@ -719,13 +620,13 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
         <v>3085000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -743,12 +644,12 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3085003</v>
       </c>
       <c r="B5" s="1">
@@ -757,13 +658,13 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
         <v>3085000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="1">
@@ -781,12 +682,12 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>3085004</v>
       </c>
       <c r="B6" s="1">
@@ -795,13 +696,13 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
         <v>3085000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -819,12 +720,12 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>3085005</v>
       </c>
       <c r="B7" s="1">
@@ -833,13 +734,13 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
         <v>3085000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>5</v>
       </c>
       <c r="G7" s="1">
@@ -857,12 +758,12 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>3085006</v>
       </c>
       <c r="B8" s="1">
@@ -871,11 +772,11 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1">
         <v>17500</v>
       </c>
@@ -891,8 +792,8 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
+      <c r="L8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
